--- a/区間情報/区間情報アウトコースまとめ.xlsx
+++ b/区間情報/区間情報アウトコースまとめ.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="20130" windowHeight="8610" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="19440" windowHeight="8610"/>
   </bookViews>
   <sheets>
     <sheet name="数値データ" sheetId="1" r:id="rId1"/>
@@ -3427,8 +3427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3809,9 +3809,6 @@
       </c>
       <c r="D20">
         <v>863.06</v>
-      </c>
-      <c r="E20">
-        <v>1600</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -3984,7 +3981,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>

--- a/区間情報/区間情報アウトコースまとめ.xlsx
+++ b/区間情報/区間情報アウトコースまとめ.xlsx
@@ -10,12 +10,12 @@
     <sheet name="数値データ" sheetId="1" r:id="rId1"/>
     <sheet name="コース図" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>ベーシック</t>
     <phoneticPr fontId="1"/>
@@ -224,6 +224,30 @@
   </si>
   <si>
     <t>OutSixthCurve_2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>StartArea</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>firstCurveArea</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SecondStraightArea</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SecondCurveArea</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ThurdStraightArea</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ThurdCurveArea</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -279,7 +303,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -291,6 +315,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3425,551 +3452,592 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="23.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.375" customWidth="1"/>
-    <col min="8" max="8" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.375" customWidth="1"/>
-    <col min="10" max="10" width="37" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.375" customWidth="1"/>
+    <col min="9" max="9" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.375" customWidth="1"/>
+    <col min="11" max="11" width="37" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="C1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="D1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B2" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>27</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>28</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>22</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>26</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>23</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>30</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>29</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>200</v>
       </c>
-      <c r="F4" s="4">
+      <c r="G4" s="5">
         <v>1010</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4">
+      <c r="H4" s="1"/>
+      <c r="I4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="D5">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="E5">
         <v>810</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="1"/>
-      <c r="H5">
+      <c r="G5" s="5"/>
+      <c r="H5" s="1"/>
+      <c r="I5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A6" s="4"/>
-      <c r="B6" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>570</v>
       </c>
-      <c r="F6" s="4">
-        <f>SUM(D6:D7)</f>
+      <c r="G6" s="5">
+        <f>SUM(E6:E7)</f>
         <v>1710</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6">
+      <c r="H6" s="1"/>
+      <c r="I6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A7" s="4"/>
-      <c r="C7" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>1140</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="1"/>
-      <c r="H7">
+      <c r="G7" s="5"/>
+      <c r="H7" s="1"/>
+      <c r="I7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A8" s="4"/>
-      <c r="B8" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" t="s">
         <v>7</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>378.6</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>378.6</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A9" s="4"/>
-      <c r="B9" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="5"/>
+      <c r="B9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
         <v>8</v>
       </c>
-      <c r="D9">
-        <f>(1/H9)*(PI()/180)*G9</f>
+      <c r="E9">
+        <f>(1/I9)*(PI()/180)*H9</f>
         <v>1649.6031785101966</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>90</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <f>1/1050.17</f>
         <v>9.5222678233047972E-4</v>
       </c>
-      <c r="I9">
-        <f>1/H9</f>
+      <c r="J9">
+        <f>1/I9</f>
         <v>1050.17</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A10" s="4"/>
-      <c r="B10" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="5"/>
+      <c r="B10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
         <v>9</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>1365</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A11" s="4"/>
-      <c r="B11" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s">
         <v>10</v>
       </c>
-      <c r="D11">
-        <f>(1/H11)*(PI()/180)*G11</f>
+      <c r="E11">
+        <f>(1/I11)*(PI()/180)*H11</f>
         <v>1141.591938461459</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>90</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <f>1/726.76</f>
         <v>1.3759700588915186E-3</v>
       </c>
-      <c r="I11">
-        <f>1/H11</f>
+      <c r="J11">
+        <f>1/I11</f>
         <v>726.76</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="L11" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A12" s="4"/>
-      <c r="B12" t="s">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" t="s">
         <v>11</v>
       </c>
-      <c r="D12">
-        <f>(1/H12)*(PI()/180)*G12</f>
+      <c r="E12">
+        <f>(1/I12)*(PI()/180)*H12</f>
         <v>943.47324439241072</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>634</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <f>90-9.34</f>
         <v>80.66</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <f>1/(12.91*51.912)</f>
         <v>1.49212771324027E-3</v>
       </c>
-      <c r="I12">
-        <f>1/H12</f>
+      <c r="J12">
+        <f>1/I12</f>
         <v>670.18391999999994</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>570</v>
       </c>
-      <c r="K12" s="4"/>
+      <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A13" s="4"/>
-      <c r="B13" t="s">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" t="s">
         <v>12</v>
       </c>
-      <c r="D13">
-        <f>(1/H13)*(PI()/180)*G13</f>
+      <c r="E13">
+        <f>(1/I13)*(PI()/180)*H13</f>
         <v>661.34979156271004</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>561.34</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>40.869999999999997</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <f>1/(17.86*51.912)</f>
         <v>1.0785760793914831E-3</v>
       </c>
-      <c r="I13">
-        <f>1/H13</f>
+      <c r="J13">
+        <f>1/I13</f>
         <v>927.14831999999979</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>527</v>
       </c>
-      <c r="K13" s="4"/>
+      <c r="L13" s="5"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A14" s="4"/>
-      <c r="B14" t="s">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="5"/>
+      <c r="B14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" t="s">
         <v>15</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <f>9.88*51.912</f>
         <v>512.89056000000005</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="4"/>
-      <c r="B15" s="3" t="s">
+    <row r="15" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="3">
-        <f>(1/H15)*(PI()/180)*G15</f>
+      <c r="E15" s="3">
+        <f>(1/I15)*(PI()/180)*H15</f>
         <v>299.21924696190786</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>21.43</v>
       </c>
-      <c r="H15" s="3">
-        <f>1/I15</f>
+      <c r="I15" s="3">
+        <f>1/J15</f>
         <v>1.25E-3</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A16" s="4"/>
-      <c r="B16" t="s">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" t="s">
         <v>17</v>
       </c>
-      <c r="D16">
-        <f>(1/H16)*(PI()/180)*G16</f>
+      <c r="E16">
+        <f>(1/I16)*(PI()/180)*H16</f>
         <v>372.59288871574944</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>71.16</v>
       </c>
-      <c r="H16">
-        <f>1/I16</f>
+      <c r="I16">
+        <f>1/J16</f>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>300</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A17" s="4"/>
-      <c r="B17" t="s">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" t="s">
         <v>18</v>
       </c>
-      <c r="D17">
-        <f t="shared" ref="D17:D19" si="0">(1/H17)*(PI()/180)*G17</f>
+      <c r="E17">
+        <f t="shared" ref="E17:E19" si="0">(1/I17)*(PI()/180)*H17</f>
         <v>380.32469730208436</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <f>90-58.87</f>
         <v>31.130000000000003</v>
       </c>
-      <c r="H17">
-        <f t="shared" ref="H17:H18" si="1">1/I17</f>
+      <c r="I17">
+        <f t="shared" ref="I17:I18" si="1">1/J17</f>
         <v>1.4285714285714286E-3</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>700</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A18" s="4"/>
-      <c r="B18" t="s">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" t="s">
         <v>31</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <f t="shared" si="0"/>
         <v>307.8760800517997</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <f>90-27</f>
         <v>63</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <f t="shared" si="1"/>
         <v>3.5714285714285713E-3</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>280</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A19" s="4"/>
-      <c r="B19" t="s">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" t="s">
         <v>32</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <f t="shared" si="0"/>
         <v>414.38305232550175</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <f>2.67+28.57</f>
         <v>31.240000000000002</v>
       </c>
-      <c r="H19">
-        <f>1/I19</f>
+      <c r="I19">
+        <f>1/J19</f>
         <v>1.3157894736842105E-3</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>760</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A20" s="4"/>
-      <c r="B20" t="s">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A20" s="5"/>
+      <c r="B20" s="4"/>
+      <c r="C20" t="s">
         <v>19</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>863.06</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A21" s="4"/>
-      <c r="B21" t="s">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A21" s="5"/>
+      <c r="B21" s="4"/>
+      <c r="C21" t="s">
         <v>20</v>
       </c>
-      <c r="D21">
-        <f>(1/H21)*(PI()/180)*G21</f>
+      <c r="E21">
+        <f>(1/I21)*(PI()/180)*H21</f>
         <v>361.07371565258688</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <f>31.95-6.09</f>
         <v>25.86</v>
       </c>
-      <c r="H21">
-        <f>1/I21</f>
+      <c r="I21">
+        <f>1/J21</f>
         <v>1.25E-3</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>800</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A22" s="4"/>
-      <c r="B22" t="s">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A22" s="5"/>
+      <c r="B22" s="4"/>
+      <c r="C22" t="s">
         <v>21</v>
       </c>
-      <c r="D22">
-        <f>(1/H22)*(PI()/180)*G22</f>
+      <c r="E22">
+        <f>(1/I22)*(PI()/180)*H22</f>
         <v>807.28459221745709</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <f>90-18.84</f>
         <v>71.16</v>
       </c>
-      <c r="H22">
-        <f>1/I22</f>
+      <c r="I22">
+        <f>1/J22</f>
         <v>1.5384615384615385E-3</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>650</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A23" s="4"/>
-      <c r="B23" t="s">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A23" s="5"/>
+      <c r="B23" s="4"/>
+      <c r="C23" t="s">
         <v>33</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>1010</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>920</v>
       </c>
-      <c r="F23">
-        <f>SUM(D23)</f>
+      <c r="G23">
+        <f>SUM(E23)</f>
         <v>1010</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>0</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <f>936/2</f>
         <v>468</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A24" s="4"/>
-      <c r="B24" t="s">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A24" s="5"/>
+      <c r="B24" s="4"/>
+      <c r="C24" t="s">
         <v>34</v>
       </c>
-      <c r="D24">
-        <f>(1/H24)*(PI()/180)*G24</f>
+      <c r="E24">
+        <f>(1/I24)*(PI()/180)*H24</f>
         <v>1470.2653618800232</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>180</v>
       </c>
-      <c r="H24">
-        <f>1/I23</f>
+      <c r="I24">
+        <f>1/J23</f>
         <v>2.136752136752137E-3</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>650</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="4"/>
-      <c r="B25" s="2" t="s">
+    <row r="25" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="5"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>100</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A26" s="4"/>
-      <c r="B26" t="s">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A26" s="5"/>
+      <c r="B26" s="4"/>
+      <c r="C26" t="s">
         <v>36</v>
       </c>
-      <c r="D26">
-        <f>(1/H26)*(PI()/180)*G26</f>
+      <c r="E26">
+        <f>(1/I26)*(PI()/180)*H26</f>
         <v>691.15038378975453</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>90</v>
       </c>
-      <c r="H26">
-        <f>1/I26</f>
+      <c r="I26">
+        <f>1/J26</f>
         <v>2.2727272727272726E-3</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>440</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>250</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A27" s="4"/>
-      <c r="B27" t="s">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A27" s="5"/>
+      <c r="B27" s="4"/>
+      <c r="C27" t="s">
         <v>37</v>
       </c>
-      <c r="D27">
-        <f>(1/H27)*(PI()/180)*G27</f>
+      <c r="E27">
+        <f>(1/I27)*(PI()/180)*H27</f>
         <v>911.0618695410401</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>1200</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>90</v>
       </c>
-      <c r="H27">
-        <f>1/I27</f>
+      <c r="I27">
+        <f>1/J27</f>
         <v>1.7241379310344827E-3</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>580</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>350</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="K11:K13"/>
+  <mergeCells count="8">
+    <mergeCell ref="L11:L13"/>
     <mergeCell ref="A3:A27"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B15:B19"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
